--- a/example/Timeline data.xlsx
+++ b/example/Timeline data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\PbiTimeline\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7BFE5346-8B82-4645-A84E-B2EC2DF21478}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -75,33 +76,6 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_bigger.jpg</t>
-  </si>
-  <si>
-    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_bigger.jpg","authorVerified":true,"createdDateUTC":"2018-01-20T16:00:02+00:00","id":"954745340812406784","quotedTweet":null,"replyToScreenName":null,"text":"She’s young, she wants to fit in, and she can speak to the dead. The Teenage Psychic is now on #HBO.","liked":56,"retweeted":15,"media":[{"displayUrl":"pic.twitter.com/Ae1FLouHQY","type":"video","url":"https://pbs.twimg.com/media/DTcNMLHUQAA93_b.jpg","videoLength":"00:45","videoUrl":"https://video.twimg.com/amplify_video/952230826908966913/vid/640x360/bHXZ1m7HxRPX0jDd.mp4"}]}</t>
-  </si>
-  <si>
-    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_bigger.jpg","authorVerified":true,"createdDateUTC":"2018-01-21T16:00:01+00:00","id":"955107726849273861","quotedTweet":null,"replyToScreenName":null,"text":"New series, returning favorites, comedy specials, sports, original movies and more. It’s all coming soon to #HBO.","liked":206,"retweeted":49,"media":[{"displayUrl":"pic.twitter.com/qiOfq8PQs8","type":"video","url":"https://pbs.twimg.com/media/DUETj3OXkAAEB_3.jpg","videoLength":"01:21","videoUrl":"https://video.twimg.com/amplify_video/955062004166873088/vid/1280x720/li7Z7tHkLakfynHS.mp4"}]}</t>
-  </si>
-  <si>
-    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_bigger.jpg","authorVerified":true,"createdDateUTC":"2018-01-01T15:52:03+00:00","id":"947857962663579648","quotedTweet":null,"replyToScreenName":"EscanoooR","text":"Our pleasure.","liked":0,"retweeted":0,"media":[{"displayUrl":"pic.twitter.com/rFb2N75cvS","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DSd3sjeXcAE_z6O.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DSd3sjeXcAE_z6O.mp4"}]}</t>
-  </si>
-  <si>
-    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_bigger.jpg","authorVerified":true,"createdDateUTC":"2018-01-11T18:38:33+00:00","id":"951523745138606082","quotedTweet":{"authorId":"143812589","authorName":"HBO Documentaries","authorScreenName":"HBODocs","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/655042871246979072/MRecM8aD_normal.jpg","authorVerified":true,"createdDateUTC":"2018-01-06T00:46:10+00:00","id":"949441928965304332","quotedTweet":null,"replyToScreenName":null,"text":"An Apatow production...\n\n#MayItLast: A Portrait of the Avett Brothers, offering an inside look at the North Carolina band, premieres January 29 on @HBO.","liked":1079,"retweeted":374,"media":[{"displayUrl":"pic.twitter.com/yDcnnprQgX","type":"video","url":"https://pbs.twimg.com/media/DSzZZ36VMAAhAqE.jpg","videoLength":"01:00","videoUrl":"https://video.twimg.com/amplify_video/949371764047462400/vid/640x360/a_1spq2paLc3Jxiq.mp4"}]},"replyToScreenName":null,"text":"An Apatow Production, #MayItLast: A Portrait of the Avett Brothers comes to #HBO January 29. @JuddApatow","liked":160,"retweeted":33,"media":null}</t>
-  </si>
-  <si>
-    <t>https://pbs.twimg.com/profile_images/867070777878859777/MtfeEkqy_bigger.jpg</t>
-  </si>
-  <si>
-    <t>{"isRetweet":true,"retweetedTweet":{"authorId":"180463340","authorName":"Game Of Thrones","authorScreenName":"GameOfThrones","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/867070777878859777/MtfeEkqy_bigger.jpg","authorVerified":true,"createdDateUTC":"2017-12-30T19:50:04+00:00","id":"947193088425857024","quotedTweet":null,"replyToScreenName":null,"text":"DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2.","liked":8286,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]},"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_normal.jpg","authorVerified":true,"createdDateUTC":"2017-12-31T15:01:23+00:00","id":"947482825669971968","quotedTweet":null,"replyToScreenName":null,"text":"RT @GameOfThrones: DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2. https://t.co/XPnOam1W6K","liked":0,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]}</t>
-  </si>
-  <si>
-    <t>https://pbs.twimg.com/profile_images/966101637210300416/pzUiJIyg_bigger.jpg</t>
-  </si>
-  <si>
-    <t>{"isRetweet":true,"retweetedTweet":{"authorId":"2821417461","authorName":"Silicon Valley","authorScreenName":"SiliconHBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/966101637210300416/pzUiJIyg_bigger.jpg","authorVerified":true,"createdDateUTC":"2018-01-10T17:01:05+00:00","id":"951136827750080514","quotedTweet":null,"replyToScreenName":null,"text":"New Year. New Internet. New Season of #SiliconValleyHBO. March 25.","liked":22766,"retweeted":10950,"media":[{"displayUrl":"pic.twitter.com/vfBW8Nerds","type":"video","url":"https://pbs.twimg.com/media/DTMG2DpWsAAx2KQ.jpg","videoLength":"01:10","videoUrl":"https://video.twimg.com/amplify_video/951109758886535168/vid/640x360/z1mgRwhqixA5x0-f.mp4"}]},"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_normal.jpg","authorVerified":true,"createdDateUTC":"2018-01-10T17:07:21+00:00","id":"951138403390717952","quotedTweet":null,"replyToScreenName":null,"text":"RT @SiliconHBO: New Year. New Internet. New Season of #SiliconValleyHBO. March 25. https://t.co/vfBW8Nerds","liked":0,"retweeted":10950,"media":[{"displayUrl":"pic.twitter.com/vfBW8Nerds","type":"video","url":"https://pbs.twimg.com/media/DTMG2DpWsAAx2KQ.jpg","videoLength":"01:10","videoUrl":"https://video.twimg.com/amplify_video/951109758886535168/vid/640x360/z1mgRwhqixA5x0-f.mp4"}]}</t>
-  </si>
-  <si>
     <t>Tweet Json</t>
   </si>
   <si>
@@ -115,12 +89,39 @@
   </si>
   <si>
     <t>Created date</t>
+  </si>
+  <si>
+    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-20T16:00:02+00:00","id":"954745340812406784","quotedTweet":null,"replyToScreenName":null,"text":"She’s young, she wants to fit in, and she can speak to the dead. The Teenage Psychic is now on #HBO.","liked":56,"retweeted":15,"media":[{"displayUrl":"pic.twitter.com/Ae1FLouHQY","type":"video","url":"https://pbs.twimg.com/media/DTcNMLHUQAA93_b.jpg","videoLength":"00:45","videoUrl":"https://video.twimg.com/amplify_video/952230826908966913/vid/640x360/bHXZ1m7HxRPX0jDd.mp4"}]}</t>
+  </si>
+  <si>
+    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-21T16:00:01+00:00","id":"955107726849273861","quotedTweet":null,"replyToScreenName":null,"text":"New series, returning favorites, comedy specials, sports, original movies and more. It’s all coming soon to #HBO.","liked":206,"retweeted":49,"media":[{"displayUrl":"pic.twitter.com/qiOfq8PQs8","type":"video","url":"https://pbs.twimg.com/media/DUETj3OXkAAEB_3.jpg","videoLength":"01:21","videoUrl":"https://video.twimg.com/amplify_video/955062004166873088/vid/1280x720/li7Z7tHkLakfynHS.mp4"}]}</t>
+  </si>
+  <si>
+    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-01T15:52:03+00:00","id":"947857962663579648","quotedTweet":null,"replyToScreenName":"EscanoooR","text":"Our pleasure.","liked":0,"retweeted":0,"media":[{"displayUrl":"pic.twitter.com/rFb2N75cvS","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DSd3sjeXcAE_z6O.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DSd3sjeXcAE_z6O.mp4"}]}</t>
+  </si>
+  <si>
+    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-11T18:38:33+00:00","id":"951523745138606082","quotedTweet":{"authorId":"143812589","authorName":"HBO Documentaries","authorScreenName":"HBODocs","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/655042871246979072/MRecM8aD_normal.jpg","authorVerified":true,"createdDateUTC":"2018-01-06T00:46:10+00:00","id":"949441928965304332","quotedTweet":null,"replyToScreenName":null,"text":"An Apatow production...\n\n#MayItLast: A Portrait of the Avett Brothers, offering an inside look at the North Carolina band, premieres January 29 on @HBO.","liked":1079,"retweeted":374,"media":[{"displayUrl":"pic.twitter.com/yDcnnprQgX","type":"video","url":"https://pbs.twimg.com/media/DSzZZ36VMAAhAqE.jpg","videoLength":"01:00","videoUrl":"https://video.twimg.com/amplify_video/949371764047462400/vid/640x360/a_1spq2paLc3Jxiq.mp4"}]},"replyToScreenName":null,"text":"An Apatow Production, #MayItLast: A Portrait of the Avett Brothers comes to #HBO January 29. @JuddApatow","liked":160,"retweeted":33,"media":null}</t>
+  </si>
+  <si>
+    <t>https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg</t>
+  </si>
+  <si>
+    <t>https://cloudscopeio.blob.core.windows.net/public/visuals/siliconhbo.jpg</t>
+  </si>
+  <si>
+    <t>{"isRetweet":true,"retweetedTweet":{"authorId":"2821417461","authorName":"Silicon Valley","authorScreenName":"SiliconHBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/siliconhbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-10T17:01:05+00:00","id":"951136827750080514","quotedTweet":null,"replyToScreenName":null,"text":"New Year. New Internet. New Season of #SiliconValleyHBO. March 25.","liked":22766,"retweeted":10950,"media":[{"displayUrl":"pic.twitter.com/vfBW8Nerds","type":"video","url":"https://pbs.twimg.com/media/DTMG2DpWsAAx2KQ.jpg","videoLength":"01:10","videoUrl":"https://video.twimg.com/amplify_video/951109758886535168/vid/640x360/z1mgRwhqixA5x0-f.mp4"}]},"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_normal.jpg","authorVerified":true,"createdDateUTC":"2018-01-10T17:07:21+00:00","id":"951138403390717952","quotedTweet":null,"replyToScreenName":null,"text":"RT @SiliconHBO: New Year. New Internet. New Season of #SiliconValleyHBO. March 25. https://t.co/vfBW8Nerds","liked":0,"retweeted":10950,"media":[{"displayUrl":"pic.twitter.com/vfBW8Nerds","type":"video","url":"https://pbs.twimg.com/media/DTMG2DpWsAAx2KQ.jpg","videoLength":"01:10","videoUrl":"https://video.twimg.com/amplify_video/951109758886535168/vid/640x360/z1mgRwhqixA5x0-f.mp4"}]}</t>
+  </si>
+  <si>
+    <t>https://cloudscopeio.blob.core.windows.net/public/visuals/got.jpg</t>
+  </si>
+  <si>
+    <t>{"isRetweet":true,"retweetedTweet":{"authorId":"180463340","authorName":"Game Of Thrones","authorScreenName":"GameOfThrones","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/got.jpg","authorVerified":true,"createdDateUTC":"2017-12-30T19:50:04+00:00","id":"947193088425857024","quotedTweet":null,"replyToScreenName":null,"text":"DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2.","liked":8286,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]},"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_normal.jpg","authorVerified":true,"createdDateUTC":"2017-12-31T15:01:23+00:00","id":"947482825669971968","quotedTweet":null,"replyToScreenName":null,"text":"RT @GameOfThrones: DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2. https://t.co/XPnOam1W6K","liked":0,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\Thh:mm"/>
   </numFmts>
@@ -491,10 +492,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -506,16 +509,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -530,12 +533,12 @@
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -559,12 +562,12 @@
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
+      <c r="A3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -588,12 +591,12 @@
         <v>96</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -617,12 +620,12 @@
         <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -646,12 +649,12 @@
         <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -675,12 +678,12 @@
         <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -704,17 +707,19 @@
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{5D7DEC5D-751C-47BF-B049-FB007A35FB59}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{1B3F7EF6-BAC2-40AB-AAB0-419FA1FD2C2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/example/Timeline data.xlsx
+++ b/example/Timeline data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\PbiTimeline\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7BFE5346-8B82-4645-A84E-B2EC2DF21478}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{325DD308-1EA1-4F33-A8E4-0236C91AD6A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,6 @@
     <t>@GameOfThrones</t>
   </si>
   <si>
-    <t>DRACARYS!_x000D_
-#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2.</t>
-  </si>
-  <si>
     <t>Sentiment</t>
   </si>
   <si>
@@ -91,15 +87,6 @@
     <t>Created date</t>
   </si>
   <si>
-    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-20T16:00:02+00:00","id":"954745340812406784","quotedTweet":null,"replyToScreenName":null,"text":"She’s young, she wants to fit in, and she can speak to the dead. The Teenage Psychic is now on #HBO.","liked":56,"retweeted":15,"media":[{"displayUrl":"pic.twitter.com/Ae1FLouHQY","type":"video","url":"https://pbs.twimg.com/media/DTcNMLHUQAA93_b.jpg","videoLength":"00:45","videoUrl":"https://video.twimg.com/amplify_video/952230826908966913/vid/640x360/bHXZ1m7HxRPX0jDd.mp4"}]}</t>
-  </si>
-  <si>
-    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-21T16:00:01+00:00","id":"955107726849273861","quotedTweet":null,"replyToScreenName":null,"text":"New series, returning favorites, comedy specials, sports, original movies and more. It’s all coming soon to #HBO.","liked":206,"retweeted":49,"media":[{"displayUrl":"pic.twitter.com/qiOfq8PQs8","type":"video","url":"https://pbs.twimg.com/media/DUETj3OXkAAEB_3.jpg","videoLength":"01:21","videoUrl":"https://video.twimg.com/amplify_video/955062004166873088/vid/1280x720/li7Z7tHkLakfynHS.mp4"}]}</t>
-  </si>
-  <si>
-    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-01T15:52:03+00:00","id":"947857962663579648","quotedTweet":null,"replyToScreenName":"EscanoooR","text":"Our pleasure.","liked":0,"retweeted":0,"media":[{"displayUrl":"pic.twitter.com/rFb2N75cvS","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DSd3sjeXcAE_z6O.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DSd3sjeXcAE_z6O.mp4"}]}</t>
-  </si>
-  <si>
     <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-11T18:38:33+00:00","id":"951523745138606082","quotedTweet":{"authorId":"143812589","authorName":"HBO Documentaries","authorScreenName":"HBODocs","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/655042871246979072/MRecM8aD_normal.jpg","authorVerified":true,"createdDateUTC":"2018-01-06T00:46:10+00:00","id":"949441928965304332","quotedTweet":null,"replyToScreenName":null,"text":"An Apatow production...\n\n#MayItLast: A Portrait of the Avett Brothers, offering an inside look at the North Carolina band, premieres January 29 on @HBO.","liked":1079,"retweeted":374,"media":[{"displayUrl":"pic.twitter.com/yDcnnprQgX","type":"video","url":"https://pbs.twimg.com/media/DSzZZ36VMAAhAqE.jpg","videoLength":"01:00","videoUrl":"https://video.twimg.com/amplify_video/949371764047462400/vid/640x360/a_1spq2paLc3Jxiq.mp4"}]},"replyToScreenName":null,"text":"An Apatow Production, #MayItLast: A Portrait of the Avett Brothers comes to #HBO January 29. @JuddApatow","liked":160,"retweeted":33,"media":null}</t>
   </si>
   <si>
@@ -115,7 +102,19 @@
     <t>https://cloudscopeio.blob.core.windows.net/public/visuals/got.jpg</t>
   </si>
   <si>
-    <t>{"isRetweet":true,"retweetedTweet":{"authorId":"180463340","authorName":"Game Of Thrones","authorScreenName":"GameOfThrones","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/got.jpg","authorVerified":true,"createdDateUTC":"2017-12-30T19:50:04+00:00","id":"947193088425857024","quotedTweet":null,"replyToScreenName":null,"text":"DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2.","liked":8286,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]},"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_normal.jpg","authorVerified":true,"createdDateUTC":"2017-12-31T15:01:23+00:00","id":"947482825669971968","quotedTweet":null,"replyToScreenName":null,"text":"RT @GameOfThrones: DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2. https://t.co/XPnOam1W6K","liked":0,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]}</t>
+    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-20T16:00:02+00:00","id":"954745340812406784","quotedTweet":null,"replyToScreenName":null,"text":"She’s young, she wants to fit in, and she can speak to the dead. The Teenage Psychic is now on #HBO.","liked":118,"retweeted":29,"media":[{"displayUrl":"pic.twitter.com/Ae1FLouHQY","type":"video","url":"https://pbs.twimg.com/media/DTcNMLHUQAA93_b.jpg","videoLength":"00:45","videoUrl":"https://video.twimg.com/amplify_video/952230826908966913/vid/640x360/bHXZ1m7HxRPX0jDd.mp4"}]}</t>
+  </si>
+  <si>
+    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-21T16:00:01+00:00","id":"955107726849273861","quotedTweet":null,"replyToScreenName":null,"text":"New series, returning favorites, comedy specials, sports, original movies and more. It’s all coming soon to #HBO.","liked":393,"retweeted":80,"media":[{"displayUrl":"pic.twitter.com/qiOfq8PQs8","type":"video","url":"https://pbs.twimg.com/media/DUETj3OXkAAEB_3.jpg","videoLength":"01:21","videoUrl":"https://video.twimg.com/amplify_video/955062004166873088/vid/1280x720/li7Z7tHkLakfynHS.mp4"}]}</t>
+  </si>
+  <si>
+    <t>{"isRetweet":false,"retweetedTweet":null,"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/hbo.jpg","authorVerified":true,"createdDateUTC":"2018-01-01T15:52:03+00:00","id":"947857962663579648","quotedTweet":null,"replyToScreenName":"EscanoooR","text":"Our pleasure.","liked":0,"retweeted":1,"media":[{"displayUrl":"pic.twitter.com/rFb2N75cvS","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DSd3sjeXcAE_z6O.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DSd3sjeXcAE_z6O.mp4"}]}</t>
+  </si>
+  <si>
+    <t>{"isRetweet":true,"retweetedTweet":{"authorId":"180463340","authorName":"Game Of Thrones","authorScreenName":"GameOfThrones","authorProfileImageUrl":"https://cloudscopeio.blob.core.windows.net/public/visuals/got.jpg","authorVerified":true,"createdDateUTC":"2017-12-30T19:50:04+00:00","id":"947193088425857024","quotedTweet":null,"replyToScreenName":null,"text":"DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2.","liked":8286,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]},"authorId":"15635604","authorName":"HBO","authorScreenName":"HBO","authorProfileImageUrl":"https://pbs.twimg.com/profile_images/960290343995564037/Iiuw16ym_normal.jpg","authorVerified":true,"createdDateUTC":"2017-12-31T15:01:23+00:00","id":"947482825669971968","quotedTweet":null,"replyToScreenName":null,"text":"RT @GameOfThrones: DRACARYS!\n#GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2. https://t.co/XPnOam1W6K","liked":50,"retweeted":1228,"media":[{"displayUrl":"pic.twitter.com/XPnOam1W6K","type":"animated_gif","url":"https://pbs.twimg.com/tweet_video_thumb/DQykdqcXUAA6x_x.jpg","videoLength":"00:00","videoUrl":"https://video.twimg.com/tweet_video/DQykdqcXUAA6x_x.mp4"}]}</t>
+  </si>
+  <si>
+    <t>DRACARYS! #GameofThrones Season 6 starts tomorrow at 6AM on @HBO 2.</t>
   </si>
 </sst>
 </file>
@@ -495,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,16 +508,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -530,15 +529,15 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -562,12 +561,12 @@
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -591,12 +590,12 @@
         <v>96</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -620,12 +619,12 @@
         <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -649,12 +648,12 @@
         <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -678,12 +677,12 @@
         <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -695,7 +694,7 @@
         <v>43099.826388888891</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>8266</v>
@@ -707,7 +706,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
